--- a/sputnik/personal/ee/171ee.xlsx
+++ b/sputnik/personal/ee/171ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,12 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -48,16 +42,22 @@
     <t xml:space="preserve"> 01.04.2019</t>
   </si>
   <si>
-    <t>Начислены пени за просрочку оплаты за ЭЭ на 222 дня (с 21.07.18 по 01.04.19) 4387,20 х 182д х 0,1% =798,47руб.</t>
-  </si>
-  <si>
-    <t>оплачены пени</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>аванс 1000,00</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
+  </si>
+  <si>
+    <t>к доплате</t>
   </si>
 </sst>
 </file>
@@ -65,9 +65,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,12 +99,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -119,14 +113,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,76 +158,35 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -253,29 +198,23 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -598,64 +537,74 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="19">
         <v>43302</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
         <v>604</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>212</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
@@ -665,17 +614,24 @@
         <f>SUM(C4,-C2)</f>
         <v>960</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>4.57</v>
       </c>
-      <c r="F4" s="6">
-        <f>PRODUCT(D4,E4)</f>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F9" si="0">PRODUCT(D4,E4)</f>
         <v>4387.2000000000007</v>
       </c>
+      <c r="G4" s="10">
+        <f>SUM(F4,F5)</f>
+        <v>4387.2000000000007</v>
+      </c>
+      <c r="H4" s="10">
+        <v>4387.2</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
@@ -685,65 +641,100 @@
         <f>SUM(C5,-C3)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>2.39</v>
       </c>
-      <c r="F5" s="6">
-        <f>PRODUCT(D5,E5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>43588</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1639</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUM(C6,-C4)</f>
+        <v>75</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>342.75</v>
+      </c>
+      <c r="G6" s="10">
+        <f>SUM(F6,F7)</f>
+        <v>342.75</v>
+      </c>
+      <c r="H6" s="10">
+        <v>342.75</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>43577</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>798.47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>43588</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>212</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2.39</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>43648</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>1639</v>
+        <v>1753</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C4)</f>
-        <v>75</v>
-      </c>
-      <c r="E8" s="13">
+        <f>SUM(C8,-C6)</f>
+        <v>114</v>
+      </c>
+      <c r="E8" s="11">
         <v>4.57</v>
       </c>
-      <c r="F8" s="6">
-        <f>PRODUCT(D8,E8)</f>
-        <v>342.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>520.98</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(F8,F9)</f>
+        <v>520.98</v>
+      </c>
+      <c r="H8" s="10">
+        <v>520.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="3">
@@ -752,16 +743,15 @@
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>2.39</v>
       </c>
-      <c r="F9" s="6">
-        <f>PRODUCT(D9,E9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
@@ -770,19 +760,24 @@
       <c r="B10" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3">
-        <v>1753</v>
-      </c>
-      <c r="D10" s="3">
-        <f>SUM(C10,-C8)</f>
-        <v>114</v>
-      </c>
-      <c r="E10" s="13">
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17">
         <v>4.57</v>
       </c>
-      <c r="F10" s="6">
-        <f>PRODUCT(D10,E10)</f>
-        <v>520.98</v>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <f>SUM(F10,F11)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -790,211 +785,260 @@
       <c r="B11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2.39</v>
+      </c>
+      <c r="F11" s="18">
+        <f>PRODUCT(D11,E11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>43759</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>2028</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(C12,-C8)</f>
+        <v>275</v>
+      </c>
+      <c r="E12" s="17">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="18">
+        <f>PRODUCT(D12,E12)</f>
+        <v>1234.75</v>
+      </c>
+      <c r="G12" s="10">
+        <f>SUM(F12,F13)</f>
+        <v>1234.75</v>
+      </c>
+      <c r="H12" s="10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="16">
         <v>212</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2.39</v>
-      </c>
-      <c r="F11" s="6">
-        <f>PRODUCT(D11,E11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>43648</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="20">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
+      <c r="D13" s="3">
+        <f>SUM(C13,-C9)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="17">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="18">
+        <f>PRODUCT(D13,E13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>43759</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2528</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(C14,-C12)</f>
+        <v>500</v>
+      </c>
+      <c r="E14" s="17">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="18">
+        <f>PRODUCT(D14,E14)</f>
+        <v>2245</v>
+      </c>
+      <c r="G14" s="10">
+        <f>SUM(F14,F15)</f>
+        <v>2245</v>
+      </c>
+      <c r="H14" s="10">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="20">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="21">
-        <f>PRODUCT(D13,E13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>43759</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="19">
-        <v>2028</v>
-      </c>
-      <c r="D14" s="3">
-        <f>SUM(C14,-C10)</f>
-        <v>275</v>
-      </c>
-      <c r="E14" s="20">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="21">
-        <f>PRODUCT(D14,E14)</f>
-        <v>1234.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>212</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C11)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="20">
+        <f>SUM(C15,-C13)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <f>PRODUCT(D15,E15)</f>
         <v>0</v>
       </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>43759</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="A16" s="14">
+        <v>43906</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
         <v>2528</v>
       </c>
       <c r="D16" s="3">
         <f>SUM(C16,-C14)</f>
-        <v>500</v>
-      </c>
-      <c r="E16" s="20">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
         <v>4.49</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <f>PRODUCT(D16,E16)</f>
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <f>SUM(F16,F17)</f>
+        <v>320.76000000000005</v>
+      </c>
+      <c r="H16" s="10">
+        <v>296.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="19">
-        <v>212</v>
+      <c r="C17" s="16">
+        <v>344</v>
       </c>
       <c r="D17" s="3">
         <f>SUM(C17,-C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="20">
+        <v>132</v>
+      </c>
+      <c r="E17" s="17">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="18">
         <f>PRODUCT(D17,E17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>320.76000000000005</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>43906</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>2528</v>
+      </c>
+      <c r="D18" s="3">
+        <f>SUM(C18,-C16)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="18">
+        <f>PRODUCT(D18,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <f>SUM(F18,F19)</f>
+        <v>379.08000000000004</v>
+      </c>
+      <c r="H18" s="10">
+        <v>403.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="16">
+        <v>500</v>
+      </c>
+      <c r="D19" s="3">
+        <f>SUM(C19,-C17)</f>
+        <v>156</v>
+      </c>
+      <c r="E19" s="17">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="18">
+        <f>PRODUCT(D19,E19)</f>
+        <v>379.08000000000004</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10">
+        <f>SUM(G4:G19)</f>
+        <v>9430.52</v>
+      </c>
+      <c r="H20" s="10">
+        <f>SUM(H4:H19)</f>
+        <v>9429.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f>SUM(H20,-G20)</f>
+        <v>-0.79000000000087311</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:F6"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/ee/171ee.xlsx
+++ b/sputnik/personal/ee/171ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -523,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -795,7 +795,7 @@
         <v>2.39</v>
       </c>
       <c r="F11" s="18">
-        <f>PRODUCT(D11,E11)</f>
+        <f t="shared" ref="F11:F19" si="1">PRODUCT(D11,E11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="10"/>
@@ -819,7 +819,7 @@
         <v>4.49</v>
       </c>
       <c r="F12" s="18">
-        <f>PRODUCT(D12,E12)</f>
+        <f t="shared" si="1"/>
         <v>1234.75</v>
       </c>
       <c r="G12" s="10">
@@ -846,7 +846,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="18">
-        <f>PRODUCT(D13,E13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G13" s="10"/>
@@ -863,14 +863,14 @@
         <v>2528</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" ref="D14:D21" si="2">SUM(C14,-C12)</f>
         <v>500</v>
       </c>
       <c r="E14" s="17">
         <v>4.49</v>
       </c>
       <c r="F14" s="18">
-        <f>PRODUCT(D14,E14)</f>
+        <f t="shared" si="1"/>
         <v>2245</v>
       </c>
       <c r="G14" s="10">
@@ -890,14 +890,14 @@
         <v>212</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15" s="17">
         <v>2.4300000000000002</v>
       </c>
       <c r="F15" s="18">
-        <f>PRODUCT(D15,E15)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="10"/>
@@ -914,14 +914,14 @@
         <v>2528</v>
       </c>
       <c r="D16" s="3">
-        <f>SUM(C16,-C14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16" s="17">
         <v>4.49</v>
       </c>
       <c r="F16" s="18">
-        <f>PRODUCT(D16,E16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="10">
@@ -941,14 +941,14 @@
         <v>344</v>
       </c>
       <c r="D17" s="3">
-        <f>SUM(C17,-C15)</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="E17" s="17">
         <v>2.4300000000000002</v>
       </c>
       <c r="F17" s="18">
-        <f>PRODUCT(D17,E17)</f>
+        <f t="shared" si="1"/>
         <v>320.76000000000005</v>
       </c>
       <c r="G17" s="10"/>
@@ -965,14 +965,14 @@
         <v>2528</v>
       </c>
       <c r="D18" s="3">
-        <f>SUM(C18,-C16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="17">
         <v>4.49</v>
       </c>
       <c r="F18" s="18">
-        <f>PRODUCT(D18,E18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="10">
@@ -992,50 +992,103 @@
         <v>500</v>
       </c>
       <c r="D19" s="3">
-        <f>SUM(C19,-C17)</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="E19" s="17">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="18">
-        <f>PRODUCT(D19,E19)</f>
+        <f t="shared" si="1"/>
         <v>379.08000000000004</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>12</v>
+      <c r="A20" s="14">
+        <v>44097</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>3644</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>1116</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="shared" ref="F20:F21" si="3">PRODUCT(D20,E20)</f>
+        <v>5256.36</v>
       </c>
       <c r="G20" s="10">
-        <f>SUM(G4:G19)</f>
-        <v>9430.52</v>
+        <f>SUM(F20,F21)</f>
+        <v>5455.2599999999993</v>
       </c>
       <c r="H20" s="10">
-        <f>SUM(H4:H19)</f>
-        <v>9429.73</v>
+        <v>5256.36</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>13</v>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="16">
+        <v>578</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="18">
+        <f t="shared" si="3"/>
+        <v>198.89999999999998</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="10">
-        <f>SUM(H20,-G20)</f>
-        <v>-0.79000000000087311</v>
+        <v>198.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(G4:G21)</f>
+        <v>14885.779999999999</v>
+      </c>
+      <c r="H22" s="10">
+        <f>SUM(H4:H21)</f>
+        <v>14884.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f>SUM(H22,-G22)</f>
+        <v>-0.78999999999905413</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/171ee.xlsx
+++ b/sputnik/personal/ee/171ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="14">
   <si>
     <t>Т1</t>
   </si>
@@ -523,10 +523,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1059,36 +1059,187 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="A22" s="14">
+        <v>44118</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>3644</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="4">SUM(C22,-C20)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="18">
+        <f t="shared" ref="F22:F23" si="5">PRODUCT(D22,E22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <f>SUM(F22,F23)</f>
+        <v>94.35</v>
+      </c>
+      <c r="H22" s="10">
+        <v>94.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="16">
+        <v>615</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="E23" s="17">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="5"/>
+        <v>94.35</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>44118</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>3790</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="6">SUM(C24,-C22)</f>
+        <v>146</v>
+      </c>
+      <c r="E24" s="17">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="18">
+        <f t="shared" ref="F24:F25" si="7">PRODUCT(D24,E24)</f>
+        <v>687.66</v>
+      </c>
+      <c r="G24" s="10">
+        <v>687.66</v>
+      </c>
+      <c r="H24" s="10">
+        <v>687.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="16">
+        <v>750</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="E25" s="17">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="18">
+        <f t="shared" si="7"/>
+        <v>344.25</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>44118</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>4500</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="8">SUM(C26,-C24)</f>
+        <v>710</v>
+      </c>
+      <c r="E26" s="17">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" ref="F26:F27" si="9">PRODUCT(D26,E26)</f>
+        <v>3344.1</v>
+      </c>
+      <c r="G26" s="10">
+        <v>3344.1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>3344.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="16">
+        <v>750</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="17">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="10">
-        <f>SUM(G4:G21)</f>
-        <v>14885.779999999999</v>
-      </c>
-      <c r="H22" s="10">
-        <f>SUM(H4:H21)</f>
-        <v>14884.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
+      <c r="G28" s="10">
+        <f>SUM(G4:G27)</f>
+        <v>19011.89</v>
+      </c>
+      <c r="H28" s="10">
+        <f>SUM(H4:H27)</f>
+        <v>19011.099999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10">
-        <f>SUM(H22,-G22)</f>
-        <v>-0.78999999999905413</v>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <f>SUM(H28,-G28)</f>
+        <v>-0.79000000000087311</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/ee/171ee.xlsx
+++ b/sputnik/personal/ee/171ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,7 +420,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,14 +500,14 @@
         <v>3644</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C2)</f>
+        <f t="shared" ref="D4:D11" si="0">SUM(C4,-C2)</f>
         <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="8">
@@ -527,14 +527,14 @@
         <v>615</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C3)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94.35</v>
       </c>
       <c r="G5" s="8"/>
@@ -551,14 +551,14 @@
         <v>3790</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C4)</f>
+        <f t="shared" si="0"/>
         <v>146</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="1">D6*E6</f>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
         <v>687.66</v>
       </c>
       <c r="G6" s="8">
@@ -578,14 +578,14 @@
         <v>750</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C5)</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>344.25</v>
       </c>
       <c r="G7" s="8"/>
@@ -604,14 +604,14 @@
         <v>4500</v>
       </c>
       <c r="D8" s="3">
-        <f>SUM(C8,-C6)</f>
+        <f t="shared" si="0"/>
         <v>710</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="2">D8*E8</f>
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
         <v>3344.1</v>
       </c>
       <c r="G8" s="8">
@@ -631,36 +631,67 @@
         <v>750</v>
       </c>
       <c r="D9" s="3">
-        <f>SUM(C9,-C7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="4">
+        <v>44293</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4800</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" ref="F10:F11" si="4">D10*E10</f>
+        <v>1413</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(F10,F11)</f>
+        <v>2560.5</v>
+      </c>
+      <c r="H10" s="8">
+        <v>2560.5</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="4"/>
+        <v>1147.5</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>

--- a/sputnik/personal/ee/171ee.xlsx
+++ b/sputnik/personal/ee/171ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\14.03.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.03.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,60 +696,156 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="8"/>
+      <c r="A12" s="4">
+        <v>44419</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4849</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:D13" si="5">SUM(C12,-C10)</f>
+        <v>49</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" ref="F12:F13" si="6">D12*E12</f>
+        <v>243.04</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(F12,F13)</f>
+        <v>243.04</v>
+      </c>
+      <c r="H12" s="8">
+        <v>243.04</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="A14" s="4">
+        <v>44419</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5500</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:D15" si="7">SUM(C14,-C12)</f>
+        <v>651</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ref="F14:F15" si="8">D14*E14</f>
+        <v>3228.96</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(F14,F15)</f>
+        <v>3228.96</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3228.96</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/171ee.xlsx
+++ b/sputnik/personal/ee/171ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 31.10.2021\30.11.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 30.11.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -420,13 +420,13 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="6"/>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="8"/>
@@ -798,29 +798,66 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="A16" s="4">
+        <v>44536</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>5650.18</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" ref="D16:D17" si="9">SUM(C16,-C14)</f>
+        <v>150.18000000000029</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ref="F16:F17" si="10">D16*E16</f>
+        <v>744.89280000000144</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(F16,F17)</f>
+        <v>752.93280000000141</v>
+      </c>
+      <c r="H16" s="8">
+        <v>861.85</v>
+      </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1203</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="10"/>
+        <v>8.0400000000000009</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="8">
+        <f>SUM(G2:G17)</f>
+        <v>11255.792800000003</v>
+      </c>
+      <c r="H18" s="3">
+        <f>SUM(H2:H17)</f>
+        <v>11364.710000000001</v>
+      </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
